--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robota\MTS\Bufter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B26150-49B0-4041-B588-15756FEAF502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993B8B00-DD94-4BEA-926B-01ACD9A5862D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ABEB2DB-2E09-4C95-818B-EAED76AB9EB7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ABEB2DB-2E09-4C95-818B-EAED76AB9EB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Prehlad" sheetId="1" r:id="rId1"/>
@@ -1194,9 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2055FA33-32BF-4BD9-B144-8F4A99F4E774}">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1843,7 +1841,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,7 +2239,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D22:E23"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,7 +2653,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E23"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,7 +3067,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,7 +3430,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,7 +3830,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4249,7 +4247,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4617,7 +4615,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5034,7 +5032,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5453,7 +5451,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6216,7 +6214,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6602,7 +6600,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6973,7 +6971,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7330,7 +7328,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7698,7 +7696,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8098,7 +8096,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8485,7 +8483,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8864,7 +8862,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D1" sqref="D1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
